--- a/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
+++ b/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="108">
   <si>
     <t>土地坐落</t>
   </si>
@@ -225,6 +225,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -234,10 +237,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>中美矽晶製品股份有限公 司</t>
-  </si>
-  <si>
-    <t>聯成化學科技股份有限公 司</t>
+    <t>中美矽晶製品股份有限公司</t>
+  </si>
+  <si>
+    <t>聯成化學科技股份有限公司</t>
   </si>
   <si>
     <t>凌陽科技股份有限公司</t>
@@ -252,7 +255,10 @@
     <t>美金</t>
   </si>
   <si>
-    <t>1,508，000</t>
+    <t>1508000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-03-14</t>
@@ -1331,13 +1337,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1365,13 +1371,16 @@
       <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
@@ -1389,21 +1398,24 @@
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2">
+        <v>80</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
         <v>908</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>37</v>
@@ -1421,21 +1433,24 @@
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2">
+        <v>80</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
         <v>908</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>37</v>
@@ -1453,21 +1468,24 @@
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2">
+        <v>80</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
         <v>908</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
@@ -1479,27 +1497,30 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2">
         <v>1682463.72</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2">
+        <v>80</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>37</v>
@@ -1514,15 +1535,18 @@
         <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2">
+        <v>80</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
         <v>908</v>
       </c>
     </row>
@@ -1541,13 +1565,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1555,10 +1579,10 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1569,10 +1593,10 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -1583,10 +1607,10 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1597,10 +1621,10 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -1611,10 +1635,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -1625,10 +1649,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -1639,10 +1663,10 @@
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
@@ -1653,10 +1677,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -1667,10 +1691,10 @@
         <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -1681,10 +1705,10 @@
         <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
@@ -1695,10 +1719,10 @@
         <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -1709,10 +1733,10 @@
         <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -1723,10 +1747,10 @@
         <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>
@@ -1737,10 +1761,10 @@
         <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -1751,10 +1775,10 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>37</v>
@@ -1765,10 +1789,10 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -1779,10 +1803,10 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -1793,10 +1817,10 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -1807,10 +1831,10 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -1821,10 +1845,10 @@
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -1835,10 +1859,10 @@
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>37</v>
@@ -1849,10 +1873,10 @@
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -1863,10 +1887,10 @@
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -1877,10 +1901,10 @@
         <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
@@ -1891,10 +1915,10 @@
         <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -1905,10 +1929,10 @@
         <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1919,10 +1943,10 @@
         <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1933,10 +1957,10 @@
         <v>124</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -1947,10 +1971,10 @@
         <v>125</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>37</v>

--- a/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
+++ b/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
   <si>
     <t>土地坐落</t>
   </si>
@@ -228,6 +228,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -237,6 +240,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中美矽晶製品股份有限公司</t>
   </si>
   <si>
@@ -261,7 +270,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-03-14</t>
+  </si>
+  <si>
+    <t>tmp82d01</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1337,13 +1352,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1374,13 +1389,22 @@
       <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
@@ -1398,24 +1422,33 @@
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2">
+        <v>84</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
         <v>908</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>37</v>
@@ -1433,24 +1466,33 @@
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2">
+        <v>84</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
         <v>908</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>37</v>
@@ -1468,24 +1510,33 @@
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2">
+        <v>84</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2">
         <v>908</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
@@ -1497,30 +1548,39 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2">
         <v>1682463.72</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2">
+        <v>84</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2">
         <v>908</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>37</v>
@@ -1535,19 +1595,28 @@
         <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2">
+        <v>84</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2">
         <v>908</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1565,13 +1634,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1579,10 +1648,10 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1593,10 +1662,10 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -1607,10 +1676,10 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1621,10 +1690,10 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -1635,10 +1704,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -1649,10 +1718,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -1663,10 +1732,10 @@
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
@@ -1677,10 +1746,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -1691,10 +1760,10 @@
         <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -1705,10 +1774,10 @@
         <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
@@ -1719,10 +1788,10 @@
         <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -1733,10 +1802,10 @@
         <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -1747,10 +1816,10 @@
         <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>
@@ -1761,10 +1830,10 @@
         <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -1775,10 +1844,10 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>37</v>
@@ -1789,10 +1858,10 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -1803,10 +1872,10 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -1817,10 +1886,10 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -1831,10 +1900,10 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -1845,10 +1914,10 @@
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -1859,10 +1928,10 @@
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>37</v>
@@ -1873,10 +1942,10 @@
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -1887,10 +1956,10 @@
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -1901,10 +1970,10 @@
         <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
@@ -1915,10 +1984,10 @@
         <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -1929,10 +1998,10 @@
         <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1943,10 +2012,10 @@
         <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1957,10 +2026,10 @@
         <v>124</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -1971,10 +2040,10 @@
         <v>125</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>37</v>

--- a/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
+++ b/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
@@ -19,9 +19,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="118">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段02300001地號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段02310001地號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段02320001地號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段03670000地號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段08120000地號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段08120001地號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段08130000地號</t>
+  </si>
+  <si>
+    <t>新北市永和區及人段04970000地號</t>
+  </si>
+  <si>
+    <t>宜蘭縣碼溪郷白雲段04140000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>192分之16</t>
+  </si>
+  <si>
+    <t>50000分之1507</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>954分之150</t>
+  </si>
+  <si>
+    <t>林德福</t>
+  </si>
+  <si>
+    <t>79年07月04日</t>
+  </si>
+  <si>
+    <t>92年05月20日</t>
+  </si>
+  <si>
+    <t>76年09月02日</t>
+  </si>
+  <si>
+    <t>86年12月09日</t>
+  </si>
+  <si>
+    <t>52年02月11曰</t>
+  </si>
+  <si>
+    <t>61年08月04日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>合併</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-14</t>
+  </si>
+  <si>
+    <t>tmp82d01</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,91 +171,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市永和區文化段0230-0001 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段0231 -0001 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段0232-0001 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段0367-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段0812-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段0812-0001 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段0813-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區及人段0497-0000 地號</t>
-  </si>
-  <si>
-    <t>宜蘭縣碼溪郷白雲段0414-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>192分之16</t>
-  </si>
-  <si>
-    <t>50000分之 1507</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>954分之 150</t>
-  </si>
-  <si>
-    <t>林德福</t>
-  </si>
-  <si>
-    <t>79年07月 04日</t>
-  </si>
-  <si>
-    <t>92年05月 20日</t>
-  </si>
-  <si>
-    <t>76年09月 02日</t>
-  </si>
-  <si>
-    <t>86年12月 09日</t>
-  </si>
-  <si>
-    <t>52年02月 11曰</t>
-  </si>
-  <si>
-    <t>61年08月 04日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>合併</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段01574-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段01575-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段01576-000 建號</t>
+    <t>新北市永和區文化段01574000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段01575000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段01576000建號</t>
   </si>
   <si>
     <t>新北市永和區文化路</t>
@@ -135,16 +186,16 @@
     <t>曾月桂</t>
   </si>
   <si>
-    <t>87年10月 19 H</t>
-  </si>
-  <si>
-    <t>87年10月 19日</t>
+    <t>87年10月19H</t>
+  </si>
+  <si>
+    <t>87年10月19日</t>
   </si>
   <si>
     <t>59年06月</t>
   </si>
   <si>
-    <t>第一次登 記</t>
+    <t>第一次登記</t>
   </si>
   <si>
     <t>繼承</t>
@@ -159,13 +210,13 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>BENZ E350</t>
-  </si>
-  <si>
-    <t>101 年 01 月20曰</t>
-  </si>
-  <si>
-    <t>1,350,000(2006 年3月出廠）</t>
+    <t>BENZE350</t>
+  </si>
+  <si>
+    <t>101年01月20曰</t>
+  </si>
+  <si>
+    <t>1350000(2006年3月出廠）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -180,19 +231,19 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行永和分 行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行永和分 行</t>
-  </si>
-  <si>
-    <t>永和郵局（第6 4支局）</t>
+    <t>臺灣中小企業銀行永和分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>永和郵局（第64支局）</t>
   </si>
   <si>
     <t>華南商業銀行永和分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行永和分 行</t>
+    <t>國泰世華商業銀行永和分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -207,12 +258,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -225,27 +270,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中美矽晶製品股份有限公司</t>
   </si>
   <si>
@@ -270,15 +294,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-14</t>
-  </si>
-  <si>
-    <t>tmp82d01</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -312,7 +327,7 @@
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>新10年限期繳費增值分紅終 身保險</t>
+    <t>新10年限期繳費增值分紅終身保險</t>
   </si>
   <si>
     <t>增值分紅終身壽險</t>
@@ -716,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,239 +759,449 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>908</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>908</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>908</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>908</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>908</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>620</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>908</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2465</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>908</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>908</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="2">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>953.21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>908</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -994,25 +1219,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1020,25 +1245,25 @@
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>90.07</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1046,25 +1271,25 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2">
         <v>134.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1072,25 +1297,25 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
         <v>134.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1098,25 +1323,25 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2">
         <v>212</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1134,22 +1359,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1157,22 +1382,22 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1190,19 +1415,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1210,16 +1435,16 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
         <v>79879</v>
@@ -1230,16 +1455,16 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2">
         <v>182802</v>
@@ -1250,16 +1475,16 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2">
         <v>118453</v>
@@ -1270,16 +1495,16 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2">
         <v>739796</v>
@@ -1290,16 +1515,16 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2">
         <v>3082</v>
@@ -1310,16 +1535,16 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2">
         <v>56027</v>
@@ -1330,16 +1555,16 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2">
         <v>1473175</v>
@@ -1360,43 +1585,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1404,10 +1629,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2">
         <v>141</v>
@@ -1416,28 +1641,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2">
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>908</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2">
         <v>68</v>
@@ -1448,10 +1673,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2">
         <v>2120</v>
@@ -1460,28 +1685,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2">
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
         <v>908</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2">
         <v>69</v>
@@ -1492,10 +1717,10 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
         <v>4199</v>
@@ -1504,28 +1729,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2">
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>908</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="N4" s="2">
         <v>70</v>
@@ -1536,10 +1761,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2">
         <v>18719</v>
@@ -1548,28 +1773,28 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2">
         <v>1682463.72</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2">
         <v>908</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="N5" s="2">
         <v>72</v>
@@ -1580,10 +1805,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2">
         <v>150800</v>
@@ -1592,28 +1817,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2">
         <v>908</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="N6" s="2">
         <v>73</v>
@@ -1634,13 +1859,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1648,13 +1873,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1662,13 +1887,13 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1676,13 +1901,13 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1690,13 +1915,13 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1704,13 +1929,13 @@
         <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1718,13 +1943,13 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1732,13 +1957,13 @@
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1746,13 +1971,13 @@
         <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1760,13 +1985,13 @@
         <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1774,13 +1999,13 @@
         <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1788,13 +2013,13 @@
         <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1802,13 +2027,13 @@
         <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1816,13 +2041,13 @@
         <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1830,13 +2055,13 @@
         <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1844,13 +2069,13 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1858,13 +2083,13 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1872,13 +2097,13 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1886,13 +2111,13 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1900,13 +2125,13 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1914,13 +2139,13 @@
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1928,13 +2153,13 @@
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1942,13 +2167,13 @@
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1956,13 +2181,13 @@
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1970,13 +2195,13 @@
         <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1984,13 +2209,13 @@
         <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1998,13 +2223,13 @@
         <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2012,13 +2237,13 @@
         <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2026,13 +2251,13 @@
         <v>124</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2040,13 +2265,13 @@
         <v>125</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
+++ b/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市永和區文化段02300001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市永和區文化段02310001地號</t>
@@ -150,30 +153,15 @@
     <t>tmp82d01</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>新北市永和區文化段01574000建號</t>
   </si>
   <si>
+    <t>87年10月19H</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
     <t>新北市永和區文化段01575000建號</t>
   </si>
   <si>
@@ -186,30 +174,15 @@
     <t>曾月桂</t>
   </si>
   <si>
-    <t>87年10月19H</t>
-  </si>
-  <si>
     <t>87年10月19日</t>
   </si>
   <si>
     <t>59年06月</t>
   </si>
   <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>BENZE350</t>
   </si>
   <si>
@@ -219,21 +192,15 @@
     <t>1350000(2006年3月出廠）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣中小企業銀行永和分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行永和分行</t>
   </si>
   <si>
@@ -249,15 +216,9 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -267,12 +228,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>中美矽晶製品股份有限公司</t>
-  </si>
-  <si>
     <t>聯成化學科技股份有限公司</t>
   </si>
   <si>
@@ -294,18 +249,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>新10年限期繳費增值分紅終身保險</t>
+  </si>
+  <si>
     <t>全球人壽</t>
   </si>
   <si>
@@ -325,9 +274,6 @@
   </si>
   <si>
     <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>新10年限期繳費增值分紅終身保險</t>
   </si>
   <si>
     <t>增值分紅終身壽險</t>
@@ -731,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,428 +726,435 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2">
         <v>908</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>908</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
         <v>42</v>
       </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2">
         <v>908</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>42</v>
       </c>
-      <c r="O4" s="2">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="2">
         <v>908</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1.33333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>620</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="2">
         <v>908</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>51.6666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2465</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>620</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M7" s="2">
         <v>908</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.03014</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>74.2951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2465</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="2">
         <v>908</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>953.21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="2">
         <v>908</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <v>953.21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="2">
-        <v>908</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="2">
-        <v>22</v>
+      <c r="P9" s="2">
+        <v>0.157232704402516</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>149.875786163522</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1219,129 +1172,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C1" s="1">
+        <v>90.07</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
-        <v>90.07</v>
+        <v>134.6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>134.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2">
+        <v>212</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2">
-        <v>134.6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2">
-        <v>212</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1351,53 +1278,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3498</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3498</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1415,158 +1319,138 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
+      </c>
+      <c r="F1" s="1">
+        <v>79879</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
-        <v>79879</v>
+        <v>182802</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2">
-        <v>182802</v>
+        <v>118453</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
-        <v>118453</v>
+        <v>739796</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
-        <v>739796</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
-        <v>3082</v>
+        <v>56027</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
-        <v>56027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>61</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2">
         <v>1473175</v>
       </c>
     </row>
@@ -1577,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1591,16 +1475,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1626,221 +1510,177 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>141</v>
+        <v>2120</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
-        <v>1410</v>
+        <v>21200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2">
         <v>908</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
-        <v>2120</v>
+        <v>4199</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2">
-        <v>21200</v>
+        <v>41990</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2">
         <v>908</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
-        <v>4199</v>
+        <v>18719</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2">
-        <v>41990</v>
+        <v>1682463.72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2">
         <v>908</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
-        <v>18719</v>
+        <v>150800</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1682463.72</v>
+        <v>59</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2">
         <v>908</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>73</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="2">
-        <v>150800</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="2">
-        <v>908</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="2">
         <v>73</v>
       </c>
     </row>
@@ -1851,7 +1691,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1859,419 +1699,405 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>125</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
+++ b/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市永和區文化段02300001地號</t>
+  </si>
+  <si>
     <t>新北市永和區文化段02310001地號</t>
   </si>
   <si>
@@ -156,30 +159,30 @@
     <t>新北市永和區文化段01574000建號</t>
   </si>
   <si>
+    <t>新北市永和區文化段01575000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段01576000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化路</t>
+  </si>
+  <si>
+    <t>曾月桂</t>
+  </si>
+  <si>
     <t>87年10月19H</t>
   </si>
   <si>
+    <t>87年10月19日</t>
+  </si>
+  <si>
+    <t>59年06月</t>
+  </si>
+  <si>
     <t>第一次登記</t>
   </si>
   <si>
-    <t>新北市永和區文化段01575000建號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段01576000建號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化路</t>
-  </si>
-  <si>
-    <t>曾月桂</t>
-  </si>
-  <si>
-    <t>87年10月19日</t>
-  </si>
-  <si>
-    <t>59年06月</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
@@ -226,6 +229,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>中美矽晶製品股份有限公司</t>
   </si>
   <si>
     <t>聯成化學科技股份有限公司</t>
@@ -677,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,178 +741,178 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>908</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>908</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>908</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>32</v>
@@ -915,104 +921,104 @@
         <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
         <v>908</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.33333333333333</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>620</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2">
         <v>908</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q6" s="2">
-        <v>51.6666666666667</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2465</v>
+        <v>620</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>33</v>
@@ -1021,139 +1027,192 @@
         <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2">
         <v>908</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>0.03014</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>74.2951</v>
+        <v>51.6666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>53</v>
+        <v>2465</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
         <v>908</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.5</v>
+        <v>0.03014</v>
       </c>
       <c r="Q8" s="2">
-        <v>26.5</v>
+        <v>74.2951</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>953.21</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2">
         <v>908</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>953.21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="2">
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>908</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2">
         <v>22</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10" s="2">
         <v>0.157232704402516</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10" s="2">
         <v>149.875786163522</v>
       </c>
     </row>
@@ -1164,111 +1223,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2">
+        <v>90.07</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>908</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1">
+      <c r="O2" s="2">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>90.07</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2">
-        <v>134.6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>134.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>908</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>134.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2">
+        <v>134.6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2">
-        <v>212</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>908</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>134.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2">
+        <v>212</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>908</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2">
+        <v>30</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1278,30 +1498,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1">
         <v>3498</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>3498</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1319,16 +1562,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1">
         <v>79879</v>
@@ -1336,121 +1579,141 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
-        <v>182802</v>
+        <v>79879</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2">
-        <v>118453</v>
+        <v>182802</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2">
-        <v>739796</v>
+        <v>118453</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2">
-        <v>3082</v>
+        <v>739796</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2">
-        <v>56027</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>56027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>61</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2">
         <v>1473175</v>
       </c>
     </row>
@@ -1461,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1475,13 +1738,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1510,177 +1773,221 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2">
-        <v>2120</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
-        <v>21200</v>
+        <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>908</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2">
-        <v>4199</v>
+        <v>2120</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
-        <v>41990</v>
+        <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>908</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2">
-        <v>18719</v>
+        <v>4199</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
-        <v>1682463.72</v>
+        <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2">
         <v>908</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2">
-        <v>150800</v>
+        <v>18719</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1682463.72</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>908</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2">
+        <v>150800</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="2">
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>908</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="2">
         <v>73</v>
       </c>
     </row>
@@ -1691,7 +1998,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1699,405 +2006,419 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
+        <v>124</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
         <v>125</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
+++ b/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>繼承</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>BENZE350</t>
@@ -1498,38 +1501,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1">
-        <v>3498</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
@@ -1538,13 +1562,34 @@
         <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>908</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1562,13 +1607,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1582,13 +1627,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1602,13 +1647,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1622,13 +1667,13 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -1642,13 +1687,13 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>49</v>
@@ -1662,13 +1707,13 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>49</v>
@@ -1682,13 +1727,13 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1702,13 +1747,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -1738,13 +1783,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1776,7 +1821,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1788,13 +1833,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>42</v>
@@ -1820,7 +1865,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1832,13 +1877,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>42</v>
@@ -1864,7 +1909,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>49</v>
@@ -1876,13 +1921,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>42</v>
@@ -1908,7 +1953,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
@@ -1920,13 +1965,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2">
         <v>1682463.72</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>42</v>
@@ -1952,7 +1997,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -1964,13 +2009,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>42</v>
@@ -2006,10 +2051,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2020,10 +2065,10 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2034,10 +2079,10 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -2048,10 +2093,10 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -2062,10 +2107,10 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -2076,10 +2121,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>49</v>
@@ -2090,10 +2135,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>49</v>
@@ -2104,10 +2149,10 @@
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>49</v>
@@ -2118,10 +2163,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -2132,10 +2177,10 @@
         <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -2146,10 +2191,10 @@
         <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
@@ -2160,10 +2205,10 @@
         <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -2174,10 +2219,10 @@
         <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>49</v>
@@ -2188,10 +2233,10 @@
         <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>49</v>
@@ -2202,10 +2247,10 @@
         <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>49</v>
@@ -2216,10 +2261,10 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
@@ -2230,10 +2275,10 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>49</v>
@@ -2244,10 +2289,10 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>49</v>
@@ -2258,10 +2303,10 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>49</v>
@@ -2272,10 +2317,10 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>49</v>
@@ -2286,10 +2331,10 @@
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -2300,10 +2345,10 @@
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>49</v>
@@ -2314,10 +2359,10 @@
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>49</v>
@@ -2328,10 +2373,10 @@
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>49</v>
@@ -2342,10 +2387,10 @@
         <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>49</v>
@@ -2356,10 +2401,10 @@
         <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>49</v>
@@ -2370,10 +2415,10 @@
         <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>49</v>
@@ -2384,10 +2429,10 @@
         <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>49</v>
@@ -2398,10 +2443,10 @@
         <v>124</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
@@ -2412,10 +2457,10 @@
         <v>125</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>49</v>

--- a/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
+++ b/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -186,6 +186,9 @@
     <t>繼承</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -196,6 +199,9 @@
   </si>
   <si>
     <t>1350000(2006年3月出廠）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣中小企業銀行永和分行</t>
@@ -1308,7 +1314,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>42</v>
@@ -1361,7 +1367,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>42</v>
@@ -1414,7 +1420,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>42</v>
@@ -1467,7 +1473,7 @@
         <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>42</v>
@@ -1512,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1553,7 +1559,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
@@ -1562,16 +1568,16 @@
         <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>42</v>
@@ -1607,13 +1613,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1627,13 +1633,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1647,13 +1653,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1667,13 +1673,13 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -1687,13 +1693,13 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>49</v>
@@ -1707,13 +1713,13 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>49</v>
@@ -1727,13 +1733,13 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1747,13 +1753,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -1783,13 +1789,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1821,7 +1827,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1833,13 +1839,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>42</v>
@@ -1865,7 +1871,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1877,13 +1883,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>42</v>
@@ -1909,7 +1915,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>49</v>
@@ -1921,13 +1927,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>42</v>
@@ -1953,7 +1959,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
@@ -1965,13 +1971,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2">
         <v>1682463.72</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>42</v>
@@ -1997,7 +2003,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -2009,13 +2015,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>42</v>
@@ -2051,10 +2057,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2065,10 +2071,10 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2079,10 +2085,10 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -2093,10 +2099,10 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -2107,10 +2113,10 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -2121,10 +2127,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>49</v>
@@ -2135,10 +2141,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>49</v>
@@ -2149,10 +2155,10 @@
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>49</v>
@@ -2163,10 +2169,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -2177,10 +2183,10 @@
         <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -2191,10 +2197,10 @@
         <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
@@ -2205,10 +2211,10 @@
         <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -2219,10 +2225,10 @@
         <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>49</v>
@@ -2233,10 +2239,10 @@
         <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>49</v>
@@ -2247,10 +2253,10 @@
         <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>49</v>
@@ -2261,10 +2267,10 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
@@ -2275,10 +2281,10 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>49</v>
@@ -2289,10 +2295,10 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>49</v>
@@ -2303,10 +2309,10 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>49</v>
@@ -2317,10 +2323,10 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>49</v>
@@ -2331,10 +2337,10 @@
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -2345,10 +2351,10 @@
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>49</v>
@@ -2359,10 +2365,10 @@
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>49</v>
@@ -2373,10 +2379,10 @@
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>49</v>
@@ -2387,10 +2393,10 @@
         <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>49</v>
@@ -2401,10 +2407,10 @@
         <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>49</v>
@@ -2415,10 +2421,10 @@
         <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>49</v>
@@ -2429,10 +2435,10 @@
         <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>49</v>
@@ -2443,10 +2449,10 @@
         <v>124</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
@@ -2457,10 +2463,10 @@
         <v>125</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>49</v>

--- a/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
+++ b/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -204,40 +204,49 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣中小企業銀行永和分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>永和郵局（第64支局）</t>
+  </si>
+  <si>
+    <t>華南商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>永和郵局（第64支局）</t>
-  </si>
-  <si>
-    <t>華南商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中美矽晶製品股份有限公司</t>
@@ -1605,13 +1614,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1622,24 +1631,45 @@
         <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1">
-        <v>79879</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1647,19 +1677,40 @@
       <c r="F2" s="2">
         <v>79879</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>908</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1667,19 +1718,40 @@
       <c r="F3" s="2">
         <v>182802</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>908</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -1687,19 +1759,40 @@
       <c r="F4" s="2">
         <v>118453</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>908</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>49</v>
@@ -1707,19 +1800,40 @@
       <c r="F5" s="2">
         <v>739796</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>908</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>49</v>
@@ -1727,19 +1841,40 @@
       <c r="F6" s="2">
         <v>3082</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>908</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1747,25 +1882,67 @@
       <c r="F7" s="2">
         <v>56027</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>908</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>1473175</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>908</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1789,13 +1966,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1827,7 +2004,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1839,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2">
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>42</v>
@@ -1871,7 +2048,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1883,13 +2060,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2">
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>42</v>
@@ -1915,7 +2092,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>49</v>
@@ -1927,13 +2104,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2">
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>42</v>
@@ -1959,7 +2136,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
@@ -1971,13 +2148,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G5" s="2">
         <v>1682463.72</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>42</v>
@@ -2003,7 +2180,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -2015,13 +2192,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>42</v>
@@ -2057,10 +2234,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2071,10 +2248,10 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2085,10 +2262,10 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -2099,10 +2276,10 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -2113,10 +2290,10 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -2127,10 +2304,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>49</v>
@@ -2141,10 +2318,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>49</v>
@@ -2155,10 +2332,10 @@
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>49</v>
@@ -2169,10 +2346,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -2183,10 +2360,10 @@
         <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -2197,10 +2374,10 @@
         <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
@@ -2211,10 +2388,10 @@
         <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -2225,10 +2402,10 @@
         <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>49</v>
@@ -2239,10 +2416,10 @@
         <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>49</v>
@@ -2253,10 +2430,10 @@
         <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>49</v>
@@ -2267,10 +2444,10 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
@@ -2281,10 +2458,10 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>49</v>
@@ -2295,10 +2472,10 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>49</v>
@@ -2309,10 +2486,10 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>49</v>
@@ -2323,10 +2500,10 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>49</v>
@@ -2337,10 +2514,10 @@
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -2351,10 +2528,10 @@
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>49</v>
@@ -2365,10 +2542,10 @@
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>49</v>
@@ -2379,10 +2556,10 @@
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>49</v>
@@ -2393,10 +2570,10 @@
         <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>49</v>
@@ -2407,10 +2584,10 @@
         <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>49</v>
@@ -2421,10 +2598,10 @@
         <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>49</v>
@@ -2435,10 +2612,10 @@
         <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>49</v>
@@ -2449,10 +2626,10 @@
         <v>124</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
@@ -2463,10 +2640,10 @@
         <v>125</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>49</v>

--- a/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
+++ b/legislator/property/output/normal/林德福_2012-03-14_財產申報表_tmp82d01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -273,33 +273,36 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
+    <t>國寶人壽</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
+    <t>幸福人誇</t>
+  </si>
+  <si>
+    <t>幸福人壽</t>
+  </si>
+  <si>
+    <t>安聯人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>新10年限期繳費增值分紅終身保險</t>
   </si>
   <si>
-    <t>全球人壽</t>
-  </si>
-  <si>
-    <t>國寶人壽</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
-    <t>幸福人誇</t>
-  </si>
-  <si>
-    <t>幸福人壽</t>
-  </si>
-  <si>
-    <t>安聯人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>增值分紅終身壽險</t>
   </si>
   <si>
@@ -343,6 +346,9 @@
   </si>
   <si>
     <t>幸福誠保意外險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2226,66 +2232,150 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2">
+        <v>908</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>908</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2">
+        <v>908</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>99</v>
       </c>
@@ -2293,13 +2383,34 @@
         <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <v>908</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -2307,13 +2418,34 @@
         <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>908</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -2321,13 +2453,34 @@
         <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2">
+        <v>908</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>102</v>
       </c>
@@ -2335,27 +2488,69 @@
         <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
+        <v>908</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2">
+        <v>908</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>104</v>
       </c>
@@ -2363,13 +2558,34 @@
         <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
+        <v>908</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>105</v>
       </c>
@@ -2377,27 +2593,69 @@
         <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2">
+        <v>908</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2">
+        <v>908</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>107</v>
       </c>
@@ -2405,13 +2663,34 @@
         <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2">
+        <v>908</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>108</v>
       </c>
@@ -2419,13 +2698,34 @@
         <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2">
+        <v>908</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>109</v>
       </c>
@@ -2433,13 +2733,34 @@
         <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
+        <v>908</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>111</v>
       </c>
@@ -2447,13 +2768,34 @@
         <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2">
+        <v>908</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>112</v>
       </c>
@@ -2461,13 +2803,34 @@
         <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>908</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>113</v>
       </c>
@@ -2475,13 +2838,34 @@
         <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2">
+        <v>908</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>114</v>
       </c>
@@ -2489,13 +2873,34 @@
         <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <v>908</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>115</v>
       </c>
@@ -2503,13 +2908,34 @@
         <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>908</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>116</v>
       </c>
@@ -2517,13 +2943,34 @@
         <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>908</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>117</v>
       </c>
@@ -2531,13 +2978,34 @@
         <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>908</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>118</v>
       </c>
@@ -2545,13 +3013,34 @@
         <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>908</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>119</v>
       </c>
@@ -2559,13 +3048,34 @@
         <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>908</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>120</v>
       </c>
@@ -2573,13 +3083,34 @@
         <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>908</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>121</v>
       </c>
@@ -2587,13 +3118,34 @@
         <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>908</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>122</v>
       </c>
@@ -2601,13 +3153,34 @@
         <v>90</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>908</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>123</v>
       </c>
@@ -2615,13 +3188,34 @@
         <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>908</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>124</v>
       </c>
@@ -2629,13 +3223,34 @@
         <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <v>908</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>125</v>
       </c>
@@ -2643,10 +3258,31 @@
         <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <v>908</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="2">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
